--- a/05.Report/TableS11.UnFA.xlsx
+++ b/05.Report/TableS11.UnFA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/My_Repo/P.sibiricum/05.Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88EDB2B-7A62-FF48-906B-52A9E3DE219A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F98E37A-230E-A64A-8C3B-E759B11470F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="35400" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1294,7 +1294,7 @@
     <t>DET set</t>
   </si>
   <si>
-    <t>Table S11.High confidence UnFA realted genes.</t>
+    <t>Table S11.High confidence UnFA realted transcripts.</t>
   </si>
 </sst>
 </file>
@@ -1376,40 +1376,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1751,126 +1748,129 @@
   <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="19" max="19" width="77.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>423</v>
-      </c>
+      <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1888,7 +1888,7 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" t="s">
@@ -1903,13 +1903,13 @@
       <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="2">
         <v>2154</v>
       </c>
       <c r="N4" t="s">
@@ -1918,7 +1918,7 @@
       <c r="O4" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="2">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
@@ -1950,7 +1950,7 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" t="s">
@@ -1965,13 +1965,13 @@
       <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="2">
         <v>1218</v>
       </c>
       <c r="N5" t="s">
@@ -1980,7 +1980,7 @@
       <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="2">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
@@ -2012,7 +2012,7 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" t="s">
@@ -2027,13 +2027,13 @@
       <c r="J6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="2">
         <v>1290</v>
       </c>
       <c r="N6" t="s">
@@ -2042,7 +2042,7 @@
       <c r="O6" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="2">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
@@ -2074,7 +2074,7 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" t="s">
@@ -2089,13 +2089,13 @@
       <c r="J7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="2">
         <v>861</v>
       </c>
       <c r="N7" t="s">
@@ -2104,7 +2104,7 @@
       <c r="O7" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="3">
         <v>5.69999999999999E-272</v>
       </c>
       <c r="Q7" t="s">
@@ -2136,7 +2136,7 @@
       <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8" t="s">
@@ -2151,13 +2151,13 @@
       <c r="J8" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="2">
         <v>2082</v>
       </c>
       <c r="N8" t="s">
@@ -2166,7 +2166,7 @@
       <c r="O8" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="3">
         <v>1.1E-263</v>
       </c>
       <c r="Q8" t="s">
@@ -2198,7 +2198,7 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="3">
         <v>1.0999999999999899E-262</v>
       </c>
       <c r="G9" t="s">
@@ -2213,13 +2213,13 @@
       <c r="J9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="2">
         <v>939</v>
       </c>
       <c r="N9" t="s">
@@ -2228,7 +2228,7 @@
       <c r="O9" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="3">
         <v>2.4E-248</v>
       </c>
       <c r="Q9" t="s">
@@ -2260,7 +2260,7 @@
       <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" t="s">
@@ -2275,13 +2275,13 @@
       <c r="J10" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="2">
         <v>1797</v>
       </c>
       <c r="N10" t="s">
@@ -2290,7 +2290,7 @@
       <c r="O10" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="3">
         <v>8.79999999999999E-245</v>
       </c>
       <c r="Q10" t="s">
@@ -2322,7 +2322,7 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="3">
         <v>3.2000000000000002E-292</v>
       </c>
       <c r="G11" t="s">
@@ -2337,13 +2337,13 @@
       <c r="J11" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="2">
         <v>1735</v>
       </c>
       <c r="N11" t="s">
@@ -2352,7 +2352,7 @@
       <c r="O11" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="3">
         <v>3.3000000000000001E-224</v>
       </c>
       <c r="Q11" t="s">
@@ -2384,7 +2384,7 @@
       <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="3">
         <v>1.6E-236</v>
       </c>
       <c r="G12" t="s">
@@ -2399,13 +2399,13 @@
       <c r="J12" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="2">
         <v>1352</v>
       </c>
       <c r="N12" t="s">
@@ -2414,7 +2414,7 @@
       <c r="O12" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="3">
         <v>5.0000000000000002E-194</v>
       </c>
       <c r="Q12" t="s">
@@ -2446,7 +2446,7 @@
       <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="3">
         <v>1.2000000000000001E-261</v>
       </c>
       <c r="G13" t="s">
@@ -2461,13 +2461,13 @@
       <c r="J13" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="2">
         <v>1487</v>
       </c>
       <c r="N13" t="s">
@@ -2476,7 +2476,7 @@
       <c r="O13" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="3">
         <v>1.1E-154</v>
       </c>
       <c r="Q13" t="s">
@@ -2508,7 +2508,7 @@
       <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="3">
         <v>2.2999999999999899E-179</v>
       </c>
       <c r="G14" t="s">
@@ -2523,13 +2523,13 @@
       <c r="J14" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="2">
         <v>1312</v>
       </c>
       <c r="N14" t="s">
@@ -2538,7 +2538,7 @@
       <c r="O14" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="3">
         <v>2.9999999999999898E-143</v>
       </c>
       <c r="Q14" t="s">
@@ -2570,7 +2570,7 @@
       <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="3">
         <v>1E-168</v>
       </c>
       <c r="G15" t="s">
@@ -2585,13 +2585,13 @@
       <c r="J15" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="2">
         <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="2">
         <v>1020</v>
       </c>
       <c r="N15" t="s">
@@ -2600,7 +2600,7 @@
       <c r="O15" t="s">
         <v>44</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="3">
         <v>3.2000000000000002E-137</v>
       </c>
       <c r="Q15" t="s">
@@ -2632,7 +2632,7 @@
       <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" t="s">
@@ -2647,13 +2647,13 @@
       <c r="J16" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="2">
         <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>85</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="2">
         <v>2499</v>
       </c>
       <c r="N16" t="s">
@@ -2694,7 +2694,7 @@
       <c r="E17" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" t="s">
@@ -2709,13 +2709,13 @@
       <c r="J17" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="2">
         <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>90</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="2">
         <v>2588</v>
       </c>
       <c r="N17" t="s">
@@ -2756,7 +2756,7 @@
       <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="G18" t="s">
@@ -2771,13 +2771,13 @@
       <c r="J18" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="2">
         <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>95</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="2">
         <v>2484</v>
       </c>
       <c r="N18" t="s">
@@ -2818,7 +2818,7 @@
       <c r="E19" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" t="s">
@@ -2833,13 +2833,13 @@
       <c r="J19" t="s">
         <v>102</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="3">
         <v>2E-170</v>
       </c>
       <c r="L19" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="2">
         <v>610</v>
       </c>
       <c r="N19" t="s">
@@ -2848,7 +2848,7 @@
       <c r="O19" t="s">
         <v>105</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="3">
         <v>7.69999999999999E-297</v>
       </c>
       <c r="Q19" t="s">
@@ -2880,7 +2880,7 @@
       <c r="E20" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="3">
         <v>3.2999999999999902E-268</v>
       </c>
       <c r="G20" t="s">
@@ -2895,13 +2895,13 @@
       <c r="J20" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="3">
         <v>2E-170</v>
       </c>
       <c r="L20" t="s">
         <v>103</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="2">
         <v>610</v>
       </c>
       <c r="N20" t="s">
@@ -2910,7 +2910,7 @@
       <c r="O20" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="3">
         <v>1.7999999999999901E-230</v>
       </c>
       <c r="Q20" t="s">
@@ -2942,7 +2942,7 @@
       <c r="E21" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="3">
         <v>7.8000000000000005E-109</v>
       </c>
       <c r="G21" t="s">
@@ -2957,13 +2957,13 @@
       <c r="J21" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="3">
         <v>2.0000000000000001E-142</v>
       </c>
       <c r="L21" t="s">
         <v>118</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="2">
         <v>516</v>
       </c>
       <c r="N21" t="s">
@@ -2972,7 +2972,7 @@
       <c r="O21" t="s">
         <v>44</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="3">
         <v>2.6E-84</v>
       </c>
       <c r="Q21" t="s">
@@ -3004,7 +3004,7 @@
       <c r="E22" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
       <c r="G22" t="s">
@@ -3019,13 +3019,13 @@
       <c r="J22" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="2">
         <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>127</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="2">
         <v>1391</v>
       </c>
       <c r="N22" t="s">
@@ -3034,7 +3034,7 @@
       <c r="O22" t="s">
         <v>59</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="2">
         <v>0</v>
       </c>
       <c r="Q22" t="s">
@@ -3066,7 +3066,7 @@
       <c r="E23" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23" t="s">
@@ -3081,13 +3081,13 @@
       <c r="J23" t="s">
         <v>126</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="2">
         <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>132</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="2">
         <v>1369</v>
       </c>
       <c r="N23" t="s">
@@ -3096,7 +3096,7 @@
       <c r="O23" t="s">
         <v>59</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="2">
         <v>0</v>
       </c>
       <c r="Q23" t="s">
@@ -3128,7 +3128,7 @@
       <c r="E24" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
       <c r="G24" t="s">
@@ -3143,13 +3143,13 @@
       <c r="J24" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="2">
         <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>139</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="2">
         <v>1690</v>
       </c>
       <c r="N24" t="s">
@@ -3158,7 +3158,7 @@
       <c r="O24" t="s">
         <v>59</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="2">
         <v>0</v>
       </c>
       <c r="Q24" t="s">
@@ -3190,7 +3190,7 @@
       <c r="E25" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
       <c r="G25" t="s">
@@ -3205,13 +3205,13 @@
       <c r="J25" t="s">
         <v>126</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="2">
         <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>132</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="2">
         <v>1369</v>
       </c>
       <c r="N25" t="s">
@@ -3220,7 +3220,7 @@
       <c r="O25" t="s">
         <v>59</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="2">
         <v>0</v>
       </c>
       <c r="Q25" t="s">
@@ -3252,7 +3252,7 @@
       <c r="E26" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
       <c r="G26" t="s">
@@ -3267,13 +3267,13 @@
       <c r="J26" t="s">
         <v>126</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="2">
         <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>146</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="2">
         <v>1144</v>
       </c>
       <c r="N26" t="s">
@@ -3282,7 +3282,7 @@
       <c r="O26" t="s">
         <v>59</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="3">
         <v>1.6000000000000001E-284</v>
       </c>
       <c r="Q26" t="s">
@@ -3314,7 +3314,7 @@
       <c r="E27" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27" t="s">
@@ -3329,13 +3329,13 @@
       <c r="J27" t="s">
         <v>126</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="2">
         <v>0</v>
       </c>
       <c r="L27" t="s">
         <v>150</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="2">
         <v>1075</v>
       </c>
       <c r="N27" t="s">
@@ -3344,7 +3344,7 @@
       <c r="O27" t="s">
         <v>59</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="3">
         <v>2.1999999999999898E-264</v>
       </c>
       <c r="Q27" t="s">
@@ -3376,7 +3376,7 @@
       <c r="E28" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="3">
         <v>3.5E-264</v>
       </c>
       <c r="G28" t="s">
@@ -3391,13 +3391,13 @@
       <c r="J28" t="s">
         <v>138</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="2">
         <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>156</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="2">
         <v>1205</v>
       </c>
       <c r="N28" t="s">
@@ -3406,7 +3406,7 @@
       <c r="O28" t="s">
         <v>157</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="3">
         <v>3E-227</v>
       </c>
       <c r="Q28" t="s">
@@ -3438,7 +3438,7 @@
       <c r="E29" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
       <c r="G29" t="s">
@@ -3453,13 +3453,13 @@
       <c r="J29" t="s">
         <v>126</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="2">
         <v>0</v>
       </c>
       <c r="L29" t="s">
         <v>162</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="2">
         <v>1319</v>
       </c>
       <c r="N29" t="s">
@@ -3500,7 +3500,7 @@
       <c r="E30" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="3">
         <v>2.3E-161</v>
       </c>
       <c r="G30" t="s">
@@ -3515,13 +3515,13 @@
       <c r="J30" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="3">
         <v>6.0000000000000003E-150</v>
       </c>
       <c r="L30" t="s">
         <v>167</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="2">
         <v>542</v>
       </c>
       <c r="N30" t="s">
@@ -3530,7 +3530,7 @@
       <c r="O30" t="s">
         <v>59</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="3">
         <v>2.2999999999999901E-117</v>
       </c>
       <c r="Q30" t="s">
@@ -3562,7 +3562,7 @@
       <c r="E31" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
       <c r="G31" t="s">
@@ -3577,13 +3577,13 @@
       <c r="J31" t="s">
         <v>173</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="3">
         <v>9.9999999999999903E-113</v>
       </c>
       <c r="L31" t="s">
         <v>174</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="2">
         <v>418</v>
       </c>
       <c r="N31" t="s">
@@ -3592,7 +3592,7 @@
       <c r="O31" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="2">
         <v>0</v>
       </c>
       <c r="Q31" t="s">
@@ -3624,7 +3624,7 @@
       <c r="E32" t="s">
         <v>170</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="3">
         <v>2E-265</v>
       </c>
       <c r="G32" t="s">
@@ -3639,13 +3639,13 @@
       <c r="J32" t="s">
         <v>173</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="3">
         <v>9.9999999999999903E-113</v>
       </c>
       <c r="L32" t="s">
         <v>174</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="2">
         <v>418</v>
       </c>
       <c r="N32" t="s">
@@ -3654,7 +3654,7 @@
       <c r="O32" t="s">
         <v>59</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="3">
         <v>9.5000000000000003E-232</v>
       </c>
       <c r="Q32" t="s">
@@ -3686,7 +3686,7 @@
       <c r="E33" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="3">
         <v>1.3000000000000001E-283</v>
       </c>
       <c r="G33" t="s">
@@ -3701,13 +3701,13 @@
       <c r="J33" t="s">
         <v>182</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="3">
         <v>2.0000000000000002E-111</v>
       </c>
       <c r="L33" t="s">
         <v>183</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="2">
         <v>414</v>
       </c>
       <c r="N33" t="s">
@@ -3716,7 +3716,7 @@
       <c r="O33" t="s">
         <v>185</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="3">
         <v>5.8999999999999905E-216</v>
       </c>
       <c r="Q33" t="s">
@@ -3748,7 +3748,7 @@
       <c r="E34" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
       <c r="G34" t="s">
@@ -3763,13 +3763,13 @@
       <c r="J34" t="s">
         <v>182</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="3">
         <v>6.0000000000000002E-111</v>
       </c>
       <c r="L34" t="s">
         <v>190</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="2">
         <v>412</v>
       </c>
       <c r="N34" t="s">
@@ -3778,7 +3778,7 @@
       <c r="O34" t="s">
         <v>59</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="3">
         <v>1.5E-298</v>
       </c>
       <c r="Q34" t="s">
@@ -3810,7 +3810,7 @@
       <c r="E35" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
       <c r="G35" t="s">
@@ -3825,13 +3825,13 @@
       <c r="J35" t="s">
         <v>182</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="3">
         <v>8.9999999999999895E-111</v>
       </c>
       <c r="L35" t="s">
         <v>194</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="2">
         <v>412</v>
       </c>
       <c r="N35" t="s">
@@ -3840,7 +3840,7 @@
       <c r="O35" t="s">
         <v>59</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="2">
         <v>0</v>
       </c>
       <c r="Q35" t="s">
@@ -3872,7 +3872,7 @@
       <c r="E36" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="3">
         <v>4.2000000000000001E-207</v>
       </c>
       <c r="G36" t="s">
@@ -3887,13 +3887,13 @@
       <c r="J36" t="s">
         <v>182</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="3">
         <v>4.0000000000000002E-110</v>
       </c>
       <c r="L36" t="s">
         <v>197</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="2">
         <v>409</v>
       </c>
       <c r="N36" t="s">
@@ -3902,7 +3902,7 @@
       <c r="O36" t="s">
         <v>59</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P36" s="3">
         <v>1.5E-176</v>
       </c>
       <c r="Q36" t="s">
@@ -3934,7 +3934,7 @@
       <c r="E37" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="3">
         <v>4.99999999999999E-299</v>
       </c>
       <c r="G37" t="s">
@@ -3949,13 +3949,13 @@
       <c r="J37" t="s">
         <v>182</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="3">
         <v>2E-109</v>
       </c>
       <c r="L37" t="s">
         <v>201</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="2">
         <v>407</v>
       </c>
       <c r="N37" t="s">
@@ -3964,7 +3964,7 @@
       <c r="O37" t="s">
         <v>59</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="3">
         <v>6.4E-242</v>
       </c>
       <c r="Q37" t="s">
@@ -3996,7 +3996,7 @@
       <c r="E38" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" t="s">
@@ -4011,13 +4011,13 @@
       <c r="J38" t="s">
         <v>182</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="3">
         <v>3.0000000000000002E-109</v>
       </c>
       <c r="L38" t="s">
         <v>201</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="2">
         <v>407</v>
       </c>
       <c r="N38" t="s">
@@ -4026,7 +4026,7 @@
       <c r="O38" t="s">
         <v>59</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P38" s="2">
         <v>0</v>
       </c>
       <c r="Q38" t="s">
@@ -4058,7 +4058,7 @@
       <c r="E39" t="s">
         <v>144</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
       <c r="G39" t="s">
@@ -4073,13 +4073,13 @@
       <c r="J39" t="s">
         <v>182</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="3">
         <v>3.0000000000000002E-109</v>
       </c>
       <c r="L39" t="s">
         <v>206</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="2">
         <v>407</v>
       </c>
       <c r="N39" t="s">
@@ -4088,7 +4088,7 @@
       <c r="O39" t="s">
         <v>59</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="3">
         <v>1.1E-293</v>
       </c>
       <c r="Q39" t="s">
@@ -4120,7 +4120,7 @@
       <c r="E40" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
       <c r="G40" t="s">
@@ -4135,13 +4135,13 @@
       <c r="J40" t="s">
         <v>182</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="3">
         <v>3.0000000000000002E-109</v>
       </c>
       <c r="L40" t="s">
         <v>201</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="2">
         <v>407</v>
       </c>
       <c r="N40" t="s">
@@ -4150,7 +4150,7 @@
       <c r="O40" t="s">
         <v>59</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="3">
         <v>9.3999999999999898E-237</v>
       </c>
       <c r="Q40" t="s">
@@ -4182,7 +4182,7 @@
       <c r="E41" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="3">
         <v>9.1000000000000004E-249</v>
       </c>
       <c r="G41" t="s">
@@ -4197,13 +4197,13 @@
       <c r="J41" t="s">
         <v>182</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="3">
         <v>3.0000000000000002E-109</v>
       </c>
       <c r="L41" t="s">
         <v>206</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M41" s="2">
         <v>407</v>
       </c>
       <c r="N41" t="s">
@@ -4212,7 +4212,7 @@
       <c r="O41" t="s">
         <v>59</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P41" s="3">
         <v>1.79999999999999E-205</v>
       </c>
       <c r="Q41" t="s">
@@ -4244,7 +4244,7 @@
       <c r="E42" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="3">
         <v>2.6999999999999899E-202</v>
       </c>
       <c r="G42" t="s">
@@ -4259,13 +4259,13 @@
       <c r="J42" t="s">
         <v>182</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="3">
         <v>4.0000000000000002E-108</v>
       </c>
       <c r="L42" t="s">
         <v>218</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="2">
         <v>403</v>
       </c>
       <c r="N42" t="s">
@@ -4274,7 +4274,7 @@
       <c r="O42" t="s">
         <v>59</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="3">
         <v>5.7000000000000001E-172</v>
       </c>
       <c r="Q42" t="s">
@@ -4306,7 +4306,7 @@
       <c r="E43" t="s">
         <v>144</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="3">
         <v>5.7999999999999898E-293</v>
       </c>
       <c r="G43" t="s">
@@ -4321,13 +4321,13 @@
       <c r="J43" t="s">
         <v>182</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="3">
         <v>1E-107</v>
       </c>
       <c r="L43" t="s">
         <v>222</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M43" s="2">
         <v>401</v>
       </c>
       <c r="N43" t="s">
@@ -4336,7 +4336,7 @@
       <c r="O43" t="s">
         <v>59</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P43" s="3">
         <v>4.9999999999999899E-232</v>
       </c>
       <c r="Q43" t="s">
@@ -4368,7 +4368,7 @@
       <c r="E44" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="3">
         <v>2.8E-208</v>
       </c>
       <c r="G44" t="s">
@@ -4383,13 +4383,13 @@
       <c r="J44" t="s">
         <v>182</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K44" s="3">
         <v>3E-102</v>
       </c>
       <c r="L44" t="s">
         <v>226</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="2">
         <v>383</v>
       </c>
       <c r="N44" t="s">
@@ -4398,7 +4398,7 @@
       <c r="O44" t="s">
         <v>59</v>
       </c>
-      <c r="P44" s="12">
+      <c r="P44" s="3">
         <v>1.9000000000000001E-176</v>
       </c>
       <c r="Q44" t="s">
@@ -4430,7 +4430,7 @@
       <c r="E45" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
       <c r="G45" t="s">
@@ -4445,13 +4445,13 @@
       <c r="J45" t="s">
         <v>182</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="3">
         <v>5.0000000000000003E-102</v>
       </c>
       <c r="L45" t="s">
         <v>230</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M45" s="2">
         <v>383</v>
       </c>
       <c r="N45" t="s">
@@ -4492,7 +4492,7 @@
       <c r="E46" t="s">
         <v>144</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="3">
         <v>2.4000000000000002E-244</v>
       </c>
       <c r="G46" t="s">
@@ -4507,13 +4507,13 @@
       <c r="J46" t="s">
         <v>182</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46" s="3">
         <v>6E-102</v>
       </c>
       <c r="L46" t="s">
         <v>226</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="2">
         <v>383</v>
       </c>
       <c r="N46" t="s">
@@ -4522,7 +4522,7 @@
       <c r="O46" t="s">
         <v>59</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P46" s="3">
         <v>3.8E-201</v>
       </c>
       <c r="Q46" t="s">
@@ -4554,7 +4554,7 @@
       <c r="E47" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="3">
         <v>2.8E-208</v>
       </c>
       <c r="G47" t="s">
@@ -4569,13 +4569,13 @@
       <c r="J47" t="s">
         <v>182</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="3">
         <v>6E-102</v>
       </c>
       <c r="L47" t="s">
         <v>230</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="2">
         <v>383</v>
       </c>
       <c r="N47" t="s">
@@ -4584,7 +4584,7 @@
       <c r="O47" t="s">
         <v>59</v>
       </c>
-      <c r="P47" s="12">
+      <c r="P47" s="3">
         <v>4.19999999999999E-176</v>
       </c>
       <c r="Q47" t="s">
@@ -4616,7 +4616,7 @@
       <c r="E48" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="3">
         <v>3.9999999999999898E-163</v>
       </c>
       <c r="G48" t="s">
@@ -4631,13 +4631,13 @@
       <c r="J48" t="s">
         <v>182</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="3">
         <v>4.0000000000000001E-100</v>
       </c>
       <c r="L48" t="s">
         <v>239</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M48" s="2">
         <v>375</v>
       </c>
       <c r="N48" t="s">
@@ -4646,7 +4646,7 @@
       <c r="O48" t="s">
         <v>59</v>
       </c>
-      <c r="P48" s="12">
+      <c r="P48" s="3">
         <v>1.3E-138</v>
       </c>
       <c r="Q48" t="s">
@@ -4678,7 +4678,7 @@
       <c r="E49" t="s">
         <v>170</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="3">
         <v>2.0000000000000002E-208</v>
       </c>
       <c r="G49" t="s">
@@ -4693,13 +4693,13 @@
       <c r="J49" t="s">
         <v>173</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="3">
         <v>9.0000000000000002E-100</v>
       </c>
       <c r="L49" t="s">
         <v>243</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M49" s="2">
         <v>375</v>
       </c>
       <c r="N49" t="s">
@@ -4708,7 +4708,7 @@
       <c r="O49" t="s">
         <v>59</v>
       </c>
-      <c r="P49" s="12">
+      <c r="P49" s="3">
         <v>4.9999999999999904E-187</v>
       </c>
       <c r="Q49" t="s">
@@ -4740,7 +4740,7 @@
       <c r="E50" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="3">
         <v>5.1999999999999896E-307</v>
       </c>
       <c r="G50" t="s">
@@ -4755,13 +4755,13 @@
       <c r="J50" t="s">
         <v>182</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="3">
         <v>6.9999999999999902E-90</v>
       </c>
       <c r="L50" t="s">
         <v>247</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M50" s="2">
         <v>342</v>
       </c>
       <c r="N50" t="s">
@@ -4770,7 +4770,7 @@
       <c r="O50" t="s">
         <v>59</v>
       </c>
-      <c r="P50" s="12">
+      <c r="P50" s="3">
         <v>8.6000000000000001E-250</v>
       </c>
       <c r="Q50" t="s">
@@ -4802,7 +4802,7 @@
       <c r="E51" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="3">
         <v>3.6000000000000004E-133</v>
       </c>
       <c r="G51" t="s">
@@ -4817,13 +4817,13 @@
       <c r="J51" t="s">
         <v>182</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51" s="3">
         <v>3.0000000000000002E-85</v>
       </c>
       <c r="L51" t="s">
         <v>251</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M51" s="2">
         <v>326</v>
       </c>
       <c r="N51" t="s">
@@ -4832,7 +4832,7 @@
       <c r="O51" t="s">
         <v>59</v>
       </c>
-      <c r="P51" s="12">
+      <c r="P51" s="3">
         <v>1.2000000000000001E-113</v>
       </c>
       <c r="Q51" t="s">
@@ -4864,7 +4864,7 @@
       <c r="E52" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
       <c r="G52" t="s">
@@ -4879,13 +4879,13 @@
       <c r="J52" t="s">
         <v>182</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52" s="3">
         <v>7.9999999999999895E-85</v>
       </c>
       <c r="L52" t="s">
         <v>251</v>
       </c>
-      <c r="M52" s="11">
+      <c r="M52" s="2">
         <v>326</v>
       </c>
       <c r="N52" t="s">
@@ -4894,7 +4894,7 @@
       <c r="O52" t="s">
         <v>59</v>
       </c>
-      <c r="P52" s="12">
+      <c r="P52" s="3">
         <v>2.3000000000000001E-227</v>
       </c>
       <c r="Q52" t="s">
@@ -4926,7 +4926,7 @@
       <c r="E53" t="s">
         <v>144</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="3">
         <v>7.3000000000000003E-259</v>
       </c>
       <c r="G53" t="s">
@@ -4941,13 +4941,13 @@
       <c r="J53" t="s">
         <v>258</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="3">
         <v>3.0000000000000001E-83</v>
       </c>
       <c r="L53" t="s">
         <v>259</v>
       </c>
-      <c r="M53" s="11">
+      <c r="M53" s="2">
         <v>320</v>
       </c>
       <c r="N53" t="s">
@@ -4956,7 +4956,7 @@
       <c r="O53" t="s">
         <v>59</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P53" s="3">
         <v>1.4E-213</v>
       </c>
       <c r="Q53" t="s">
@@ -4988,7 +4988,7 @@
       <c r="E54" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="3">
         <v>1.89999999999999E-119</v>
       </c>
       <c r="G54" t="s">
@@ -5003,13 +5003,13 @@
       <c r="J54" t="s">
         <v>264</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K54" s="3">
         <v>2.9999999999999899E-82</v>
       </c>
       <c r="L54" t="s">
         <v>265</v>
       </c>
-      <c r="M54" s="11">
+      <c r="M54" s="2">
         <v>316</v>
       </c>
       <c r="N54" t="s">
@@ -5018,7 +5018,7 @@
       <c r="O54" t="s">
         <v>59</v>
       </c>
-      <c r="P54" s="12">
+      <c r="P54" s="3">
         <v>8.5000000000000003E-103</v>
       </c>
       <c r="Q54" t="s">
@@ -5050,7 +5050,7 @@
       <c r="E55" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="3">
         <v>3.7999999999999898E-277</v>
       </c>
       <c r="G55" t="s">
@@ -5065,13 +5065,13 @@
       <c r="J55" t="s">
         <v>258</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K55" s="3">
         <v>9.9999999999999903E-82</v>
       </c>
       <c r="L55" t="s">
         <v>270</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M55" s="2">
         <v>315</v>
       </c>
       <c r="N55" t="s">
@@ -5080,7 +5080,7 @@
       <c r="O55" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="12">
+      <c r="P55" s="3">
         <v>6.2000000000000004E-223</v>
       </c>
       <c r="Q55" t="s">
@@ -5112,7 +5112,7 @@
       <c r="E56" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="3">
         <v>3.7000000000000004E-130</v>
       </c>
       <c r="G56" t="s">
@@ -5127,13 +5127,13 @@
       <c r="J56" t="s">
         <v>264</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="3">
         <v>1.9999999999999902E-80</v>
       </c>
       <c r="L56" t="s">
         <v>274</v>
       </c>
-      <c r="M56" s="11">
+      <c r="M56" s="2">
         <v>311</v>
       </c>
       <c r="N56" t="s">
@@ -5142,7 +5142,7 @@
       <c r="O56" t="s">
         <v>59</v>
       </c>
-      <c r="P56" s="12">
+      <c r="P56" s="3">
         <v>1.39999999999999E-101</v>
       </c>
       <c r="Q56" t="s">
@@ -5174,7 +5174,7 @@
       <c r="E57" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="3">
         <v>3.2000000000000001E-190</v>
       </c>
       <c r="G57" t="s">
@@ -5189,13 +5189,13 @@
       <c r="J57" t="s">
         <v>258</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="3">
         <v>3.0000000000000002E-66</v>
       </c>
       <c r="L57" t="s">
         <v>278</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="2">
         <v>263</v>
       </c>
       <c r="N57" t="s">
@@ -5204,7 +5204,7 @@
       <c r="O57" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="12">
+      <c r="P57" s="3">
         <v>4.6E-161</v>
       </c>
       <c r="Q57" t="s">
@@ -5236,7 +5236,7 @@
       <c r="E58" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="3">
         <v>1E-209</v>
       </c>
       <c r="G58" t="s">
@@ -5251,13 +5251,13 @@
       <c r="J58" t="s">
         <v>258</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K58" s="3">
         <v>3.9999999999999899E-66</v>
       </c>
       <c r="L58" t="s">
         <v>278</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M58" s="2">
         <v>263</v>
       </c>
       <c r="N58" t="s">
@@ -5266,7 +5266,7 @@
       <c r="O58" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="12">
+      <c r="P58" s="3">
         <v>8.8999999999999896E-178</v>
       </c>
       <c r="Q58" t="s">
@@ -5313,13 +5313,13 @@
       <c r="J59" t="s">
         <v>258</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59" s="3">
         <v>2.0000000000000001E-62</v>
       </c>
       <c r="L59" t="s">
         <v>286</v>
       </c>
-      <c r="M59" s="11">
+      <c r="M59" s="2">
         <v>252</v>
       </c>
       <c r="N59" t="s">
@@ -5328,7 +5328,7 @@
       <c r="O59" t="s">
         <v>287</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P59" s="3">
         <v>2.5000000000000001E-233</v>
       </c>
       <c r="Q59" t="s">
@@ -5360,7 +5360,7 @@
       <c r="E60" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="3">
         <v>1.7E-194</v>
       </c>
       <c r="G60" t="s">
@@ -5375,13 +5375,13 @@
       <c r="J60" t="s">
         <v>258</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="3">
         <v>3.0000000000000001E-61</v>
       </c>
       <c r="L60" t="s">
         <v>292</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M60" s="2">
         <v>246</v>
       </c>
       <c r="N60" t="s">
@@ -5390,7 +5390,7 @@
       <c r="O60" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="12">
+      <c r="P60" s="3">
         <v>1.49999999999999E-165</v>
       </c>
       <c r="Q60" t="s">
@@ -5422,7 +5422,7 @@
       <c r="E61" t="s">
         <v>144</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="3">
         <v>6.2999999999999902E-236</v>
       </c>
       <c r="G61" t="s">
@@ -5437,13 +5437,13 @@
       <c r="J61" t="s">
         <v>258</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K61" s="3">
         <v>4.0000000000000002E-61</v>
       </c>
       <c r="L61" t="s">
         <v>292</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M61" s="2">
         <v>246</v>
       </c>
       <c r="N61" t="s">
@@ -5452,7 +5452,7 @@
       <c r="O61" t="s">
         <v>59</v>
       </c>
-      <c r="P61" s="12">
+      <c r="P61" s="3">
         <v>7.7999999999999894E-198</v>
       </c>
       <c r="Q61" t="s">
@@ -5484,7 +5484,7 @@
       <c r="E62" t="s">
         <v>144</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="3">
         <v>2.5000000000000001E-301</v>
       </c>
       <c r="G62" t="s">
@@ -5499,13 +5499,13 @@
       <c r="J62" t="s">
         <v>258</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K62" s="3">
         <v>6E-52</v>
       </c>
       <c r="L62" t="s">
         <v>299</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M62" s="2">
         <v>217</v>
       </c>
       <c r="N62" t="s">
@@ -5514,7 +5514,7 @@
       <c r="O62" t="s">
         <v>287</v>
       </c>
-      <c r="P62" s="12">
+      <c r="P62" s="3">
         <v>1.4E-226</v>
       </c>
       <c r="Q62" t="s">
@@ -5546,7 +5546,7 @@
       <c r="E63" t="s">
         <v>144</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="3">
         <v>1.3000000000000001E-152</v>
       </c>
       <c r="G63" t="s">
@@ -5561,13 +5561,13 @@
       <c r="J63" t="s">
         <v>258</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K63" s="3">
         <v>7.9999999999999901E-47</v>
       </c>
       <c r="L63" t="s">
         <v>303</v>
       </c>
-      <c r="M63" s="11">
+      <c r="M63" s="2">
         <v>198</v>
       </c>
       <c r="N63" t="s">
@@ -5576,7 +5576,7 @@
       <c r="O63" t="s">
         <v>59</v>
       </c>
-      <c r="P63" s="12">
+      <c r="P63" s="3">
         <v>3.7000000000000004E-130</v>
       </c>
       <c r="Q63" t="s">
@@ -5608,7 +5608,7 @@
       <c r="E64" t="s">
         <v>170</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="3">
         <v>2.7000000000000001E-201</v>
       </c>
       <c r="G64" t="s">
@@ -5623,13 +5623,13 @@
       <c r="J64" t="s">
         <v>307</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64" s="3">
         <v>1E-46</v>
       </c>
       <c r="L64" t="s">
         <v>308</v>
       </c>
-      <c r="M64" s="11">
+      <c r="M64" s="2">
         <v>198</v>
       </c>
       <c r="N64" t="s">
@@ -5638,7 +5638,7 @@
       <c r="O64" t="s">
         <v>59</v>
       </c>
-      <c r="P64" s="12">
+      <c r="P64" s="3">
         <v>1.7999999999999899E-182</v>
       </c>
       <c r="Q64" t="s">
@@ -5670,7 +5670,7 @@
       <c r="E65" t="s">
         <v>170</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="3">
         <v>1.49999999999999E-165</v>
       </c>
       <c r="G65" t="s">
@@ -5685,13 +5685,13 @@
       <c r="J65" t="s">
         <v>307</v>
       </c>
-      <c r="K65" s="12">
+      <c r="K65" s="3">
         <v>2.0000000000000002E-43</v>
       </c>
       <c r="L65" t="s">
         <v>313</v>
       </c>
-      <c r="M65" s="11">
+      <c r="M65" s="2">
         <v>187</v>
       </c>
       <c r="N65" t="s">
@@ -5700,7 +5700,7 @@
       <c r="O65" t="s">
         <v>59</v>
       </c>
-      <c r="P65" s="12">
+      <c r="P65" s="3">
         <v>6.5000000000000002E-149</v>
       </c>
       <c r="Q65" t="s">
@@ -5732,7 +5732,7 @@
       <c r="E66" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="3">
         <v>1.6000000000000001E-133</v>
       </c>
       <c r="G66" t="s">
@@ -5747,13 +5747,13 @@
       <c r="J66" t="s">
         <v>258</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K66" s="3">
         <v>2.0000000000000001E-37</v>
       </c>
       <c r="L66" t="s">
         <v>317</v>
       </c>
-      <c r="M66" s="11">
+      <c r="M66" s="2">
         <v>167</v>
       </c>
       <c r="N66" t="s">
@@ -5762,7 +5762,7 @@
       <c r="O66" t="s">
         <v>59</v>
       </c>
-      <c r="P66" s="12">
+      <c r="P66" s="3">
         <v>1.6000000000000001E-113</v>
       </c>
       <c r="Q66" t="s">
@@ -5794,7 +5794,7 @@
       <c r="E67" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="3">
         <v>4.3E-271</v>
       </c>
       <c r="G67" t="s">
@@ -5809,13 +5809,13 @@
       <c r="J67" t="s">
         <v>321</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K67" s="3">
         <v>2.99999999999999E-15</v>
       </c>
       <c r="L67" t="s">
         <v>322</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M67" s="2">
         <v>95.3</v>
       </c>
       <c r="N67" t="s">
@@ -5824,7 +5824,7 @@
       <c r="O67" t="s">
         <v>287</v>
       </c>
-      <c r="P67" s="12">
+      <c r="P67" s="3">
         <v>3.7999999999999901E-199</v>
       </c>
       <c r="Q67" t="s">
@@ -5856,7 +5856,7 @@
       <c r="E68" t="s">
         <v>329</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="3">
         <v>2.2000000000000001E-259</v>
       </c>
       <c r="G68" t="s">
@@ -5871,13 +5871,13 @@
       <c r="J68" t="s">
         <v>332</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="2">
         <v>0</v>
       </c>
       <c r="L68" t="s">
         <v>333</v>
       </c>
-      <c r="M68" s="11">
+      <c r="M68" s="2">
         <v>1515</v>
       </c>
       <c r="N68" t="s">
@@ -5886,7 +5886,7 @@
       <c r="O68" t="s">
         <v>335</v>
       </c>
-      <c r="P68" s="12">
+      <c r="P68" s="3">
         <v>2E-200</v>
       </c>
       <c r="Q68" t="s">
@@ -5918,7 +5918,7 @@
       <c r="E69" t="s">
         <v>329</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="3">
         <v>4.2999999999999904E-258</v>
       </c>
       <c r="G69" t="s">
@@ -5933,13 +5933,13 @@
       <c r="J69" t="s">
         <v>332</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K69" s="2">
         <v>0</v>
       </c>
       <c r="L69" t="s">
         <v>340</v>
       </c>
-      <c r="M69" s="11">
+      <c r="M69" s="2">
         <v>1535</v>
       </c>
       <c r="N69" t="s">
@@ -5948,7 +5948,7 @@
       <c r="O69" t="s">
         <v>335</v>
       </c>
-      <c r="P69" s="12">
+      <c r="P69" s="3">
         <v>1.5000000000000001E-198</v>
       </c>
       <c r="Q69" t="s">
@@ -5980,7 +5980,7 @@
       <c r="E70" t="s">
         <v>329</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="3">
         <v>2.29999999999999E-225</v>
       </c>
       <c r="G70" t="s">
@@ -5995,13 +5995,13 @@
       <c r="J70" t="s">
         <v>332</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="2">
         <v>0</v>
       </c>
       <c r="L70" t="s">
         <v>345</v>
       </c>
-      <c r="M70" s="11">
+      <c r="M70" s="2">
         <v>1369</v>
       </c>
       <c r="N70" t="s">
@@ -6010,7 +6010,7 @@
       <c r="O70" t="s">
         <v>335</v>
       </c>
-      <c r="P70" s="12">
+      <c r="P70" s="3">
         <v>7.6000000000000001E-169</v>
       </c>
       <c r="Q70" t="s">
@@ -6042,7 +6042,7 @@
       <c r="E71" t="s">
         <v>329</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="3">
         <v>1.1E-195</v>
       </c>
       <c r="G71" t="s">
@@ -6057,13 +6057,13 @@
       <c r="J71" t="s">
         <v>332</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K71" s="2">
         <v>0</v>
       </c>
       <c r="L71" t="s">
         <v>349</v>
       </c>
-      <c r="M71" s="11">
+      <c r="M71" s="2">
         <v>1195</v>
       </c>
       <c r="N71" t="s">
@@ -6072,7 +6072,7 @@
       <c r="O71" t="s">
         <v>335</v>
       </c>
-      <c r="P71" s="12">
+      <c r="P71" s="3">
         <v>1.5000000000000001E-156</v>
       </c>
       <c r="Q71" t="s">
@@ -6104,7 +6104,7 @@
       <c r="E72" t="s">
         <v>329</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="3">
         <v>1.9E-180</v>
       </c>
       <c r="G72" t="s">
@@ -6119,13 +6119,13 @@
       <c r="J72" t="s">
         <v>332</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="2">
         <v>0</v>
       </c>
       <c r="L72" t="s">
         <v>353</v>
       </c>
-      <c r="M72" s="11">
+      <c r="M72" s="2">
         <v>1099</v>
       </c>
       <c r="N72" t="s">
@@ -6134,7 +6134,7 @@
       <c r="O72" t="s">
         <v>335</v>
       </c>
-      <c r="P72" s="12">
+      <c r="P72" s="3">
         <v>1.3E-129</v>
       </c>
       <c r="Q72" t="s">
@@ -6166,7 +6166,7 @@
       <c r="E73" t="s">
         <v>356</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="3">
         <v>1.9999999999999901E-143</v>
       </c>
       <c r="G73" t="s">
@@ -6181,13 +6181,13 @@
       <c r="J73" t="s">
         <v>359</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K73" s="2">
         <v>0</v>
       </c>
       <c r="L73" t="s">
         <v>360</v>
       </c>
-      <c r="M73" s="11">
+      <c r="M73" s="2">
         <v>1162</v>
       </c>
       <c r="N73" t="s">
@@ -6196,7 +6196,7 @@
       <c r="O73" t="s">
         <v>362</v>
       </c>
-      <c r="P73" s="12">
+      <c r="P73" s="3">
         <v>1.6E-120</v>
       </c>
       <c r="Q73" t="s">
@@ -6228,7 +6228,7 @@
       <c r="E74" t="s">
         <v>366</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="3">
         <v>2.6999999999999899E-137</v>
       </c>
       <c r="G74" t="s">
@@ -6243,13 +6243,13 @@
       <c r="J74" t="s">
         <v>359</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K74" s="2">
         <v>0</v>
       </c>
       <c r="L74" t="s">
         <v>369</v>
       </c>
-      <c r="M74" s="11">
+      <c r="M74" s="2">
         <v>813</v>
       </c>
       <c r="N74" t="s">
@@ -6258,7 +6258,7 @@
       <c r="O74" t="s">
         <v>362</v>
       </c>
-      <c r="P74" s="12">
+      <c r="P74" s="3">
         <v>5.3000000000000004E-113</v>
       </c>
       <c r="Q74" t="s">
@@ -6290,7 +6290,7 @@
       <c r="E75" t="s">
         <v>329</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="3">
         <v>5.4999999999999903E-125</v>
       </c>
       <c r="G75" t="s">
@@ -6305,13 +6305,13 @@
       <c r="J75" t="s">
         <v>332</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K75" s="2">
         <v>0</v>
       </c>
       <c r="L75" t="s">
         <v>373</v>
       </c>
-      <c r="M75" s="11">
+      <c r="M75" s="2">
         <v>728</v>
       </c>
       <c r="N75" t="s">
@@ -6320,7 +6320,7 @@
       <c r="O75" t="s">
         <v>335</v>
       </c>
-      <c r="P75" s="12">
+      <c r="P75" s="3">
         <v>5.0000000000000002E-90</v>
       </c>
       <c r="Q75" t="s">
@@ -6352,7 +6352,7 @@
       <c r="E76" t="s">
         <v>329</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="3">
         <v>1.2E-104</v>
       </c>
       <c r="G76" t="s">
@@ -6367,13 +6367,13 @@
       <c r="J76" t="s">
         <v>332</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K76" s="2">
         <v>0</v>
       </c>
       <c r="L76" t="s">
         <v>377</v>
       </c>
-      <c r="M76" s="11">
+      <c r="M76" s="2">
         <v>654</v>
       </c>
       <c r="N76" t="s">
@@ -6382,7 +6382,7 @@
       <c r="O76" t="s">
         <v>335</v>
       </c>
-      <c r="P76" s="12">
+      <c r="P76" s="3">
         <v>4.5E-92</v>
       </c>
       <c r="Q76" t="s">
@@ -6414,7 +6414,7 @@
       <c r="E77" t="s">
         <v>383</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="2">
         <v>0</v>
       </c>
       <c r="G77" t="s">
@@ -6429,13 +6429,13 @@
       <c r="J77" t="s">
         <v>386</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="2">
         <v>0</v>
       </c>
       <c r="L77" t="s">
         <v>387</v>
       </c>
-      <c r="M77" s="11">
+      <c r="M77" s="2">
         <v>1559</v>
       </c>
       <c r="N77" t="s">
@@ -6444,7 +6444,7 @@
       <c r="O77" t="s">
         <v>389</v>
       </c>
-      <c r="P77" s="12">
+      <c r="P77" s="3">
         <v>8.3000000000000004E-285</v>
       </c>
       <c r="Q77" t="s">
@@ -6476,7 +6476,7 @@
       <c r="E78" t="s">
         <v>393</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="2">
         <v>0</v>
       </c>
       <c r="G78" t="s">
@@ -6491,13 +6491,13 @@
       <c r="J78" t="s">
         <v>396</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K78" s="2">
         <v>0</v>
       </c>
       <c r="L78" t="s">
         <v>397</v>
       </c>
-      <c r="M78" s="11">
+      <c r="M78" s="2">
         <v>1738</v>
       </c>
       <c r="N78" t="s">
@@ -6506,7 +6506,7 @@
       <c r="O78" t="s">
         <v>389</v>
       </c>
-      <c r="P78" s="12">
+      <c r="P78" s="3">
         <v>8.6000000000000004E-308</v>
       </c>
       <c r="Q78" t="s">
@@ -6538,7 +6538,7 @@
       <c r="E79" t="s">
         <v>383</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="3">
         <v>1.2999999999999901E-278</v>
       </c>
       <c r="G79" t="s">
@@ -6553,13 +6553,13 @@
       <c r="J79" t="s">
         <v>386</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K79" s="2">
         <v>0</v>
       </c>
       <c r="L79" t="s">
         <v>402</v>
       </c>
-      <c r="M79" s="11">
+      <c r="M79" s="2">
         <v>1253</v>
       </c>
       <c r="N79" t="s">
@@ -6568,7 +6568,7 @@
       <c r="O79" t="s">
         <v>389</v>
       </c>
-      <c r="P79" s="12">
+      <c r="P79" s="3">
         <v>3.0000000000000003E-215</v>
       </c>
       <c r="Q79" t="s">
@@ -6600,7 +6600,7 @@
       <c r="E80" t="s">
         <v>393</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="3">
         <v>1.9E-271</v>
       </c>
       <c r="G80" t="s">
@@ -6615,13 +6615,13 @@
       <c r="J80" t="s">
         <v>396</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K80" s="2">
         <v>0</v>
       </c>
       <c r="L80" t="s">
         <v>406</v>
       </c>
-      <c r="M80" s="11">
+      <c r="M80" s="2">
         <v>1727</v>
       </c>
       <c r="N80" t="s">
@@ -6630,7 +6630,7 @@
       <c r="O80" t="s">
         <v>389</v>
       </c>
-      <c r="P80" s="12">
+      <c r="P80" s="3">
         <v>3.7000000000000003E-210</v>
       </c>
       <c r="Q80" t="s">
@@ -6647,77 +6647,78 @@
       </c>
     </row>
     <row r="81" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="5">
         <v>4.3000000000000002E-253</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="1">
         <v>880</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="I81" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J81" s="10" t="s">
+      <c r="J81" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="K81" s="13">
-        <v>0</v>
-      </c>
-      <c r="L81" s="10" t="s">
+      <c r="K81" s="4">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="M81" s="13">
+      <c r="M81" s="4">
         <v>1092</v>
       </c>
-      <c r="N81" s="10" t="s">
+      <c r="N81" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="O81" s="10" t="s">
+      <c r="O81" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="P81" s="14">
+      <c r="P81" s="5">
         <v>1.8000000000000001E-191</v>
       </c>
-      <c r="Q81" s="10" t="s">
+      <c r="Q81" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="R81" s="10">
+      <c r="R81" s="1">
         <v>670</v>
       </c>
-      <c r="S81" s="10" t="s">
+      <c r="S81" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="T81" s="10" t="b">
+      <c r="T81" s="1" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:S1"/>
+  <mergeCells count="9">
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
